--- a/Important Formulas.xlsx
+++ b/Important Formulas.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Frequency" sheetId="1" r:id="rId1"/>
     <sheet name="Index &amp; Match" sheetId="2" r:id="rId2"/>
+    <sheet name="Lookup" sheetId="3" r:id="rId3"/>
+    <sheet name="VLookup" sheetId="4" r:id="rId4"/>
+    <sheet name="HLookup" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Index &amp; Match'!$A$1:$F$11</definedName>
@@ -18,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="51">
   <si>
     <r>
       <t>FREQUENCY</t>
@@ -191,6 +194,9 @@
   </si>
   <si>
     <t>Column No</t>
+  </si>
+  <si>
+    <t>Lookup by name</t>
   </si>
 </sst>
 </file>
@@ -265,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -421,6 +427,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -428,14 +443,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -460,23 +472,33 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Accent4" xfId="3" builtinId="44"/>
@@ -1109,6 +1131,314 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>157654</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>177361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>151085</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52552</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4434051" y="939361"/>
+          <a:ext cx="2437086" cy="2542191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000" b="1"/>
+            <a:t>Syntax : LOOKUP(lookup_value, lookup_vector, result_vector)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1000" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000" b="1"/>
+            <a:t>lookup_value</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000"/>
+            <a:t>: The value you want to search for.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000" b="1"/>
+            <a:t>lookup_vector</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000"/>
+            <a:t>: The column or row where you want to search for the lookup_value.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000" b="1"/>
+            <a:t>result_vector</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000"/>
+            <a:t>: The column or row from which you want to return the corresponding value.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Note :  LOOKUP assumes the data in the lookup_vector  is sorted in ascending order. If not sorted, it may give incorrect results.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1000" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1000" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1000" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>17860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>148829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5655469" y="208360"/>
+          <a:ext cx="1881187" cy="1845469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1050"/>
+            <a:t>Syntax</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1050" baseline="0"/>
+            <a:t> : </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1050" baseline="0"/>
+            <a:t>VLOOKUP(lookup_value, table_array, col_index_num, [range_lookup])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1050"/>
+            <a:t>Note : VLOOKUP </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1050" b="1"/>
+            <a:t>won't work properly</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1050"/>
+            <a:t> if the lookup_value is not in the first column of the range you specify.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>308742</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>131379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>124810</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>32845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5806966" y="1845879"/>
+          <a:ext cx="1648810" cy="853966"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>Note : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>It searches for the lookup_value in the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>first row</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t> of the table_array</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1434,14 +1764,14 @@
       <c r="C2">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1770,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,411 +2112,411 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>33</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>43</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>53</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <f>SUM(C2:E2)</f>
         <v>129</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>43</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>14</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>69</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <f t="shared" ref="F3:F11" si="0">SUM(C3:E3)</f>
         <v>126</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21" t="s">
+      <c r="K3" s="19"/>
+      <c r="L3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="22"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>67</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>86</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>54</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <f t="shared" si="0"/>
         <v>207</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="23" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="23">
+      <c r="K4" s="19"/>
+      <c r="L4" s="22">
         <v>4</v>
       </c>
-      <c r="M4" s="22"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>74</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>54</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>34</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="22"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>21</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>45</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>42</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="25" t="s">
+      <c r="I6" s="19"/>
+      <c r="J6" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>90</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>90</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>12</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="18">
         <f>MATCH(J4,B1:B11,0)</f>
         <v>8</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="27" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="25" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>54</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>43</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>43</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20">
+      <c r="I8" s="19"/>
+      <c r="J8" s="19">
         <f>INDEX(A1:F11,3,3)</f>
         <v>43</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <f>INDEX(A1:F11,3,4)</f>
         <v>14</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="19">
         <f>INDEX(A1:F11,3,5)</f>
         <v>69</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="21">
         <f>INDEX(A1:F11,3,6)</f>
         <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>53</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>42</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>94</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="18">
         <f>MATCH(D1,A1:F1,0)</f>
         <v>4</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="22"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>42</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>66</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>43</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="25" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>59</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>24</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>43</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="27" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="27" t="s">
+      <c r="L11" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="25" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20">
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19">
         <f>INDEX(A1:F11,H14,3)</f>
         <v>74</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="19">
         <f>INDEX(A1:F11,H14,4)</f>
         <v>54</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="19">
         <f>INDEX(A1:F11,H14,5)</f>
         <v>34</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="21">
         <f>INDEX(A1:F11,H14,6)</f>
         <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="22"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H14" s="29">
+      <c r="H14" s="26">
         <f>MATCH(L4,A1:A11,0)</f>
         <v>5</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="31"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
     </row>
     <row r="17" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21" t="s">
+      <c r="K17" s="19"/>
+      <c r="L17" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="23">
+      <c r="K18" s="19"/>
+      <c r="L18" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
     </row>
     <row r="21" spans="8:13" x14ac:dyDescent="0.25">
       <c r="J21" s="32" t="s">
@@ -2253,4 +2583,1142 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13">
+        <v>59</v>
+      </c>
+      <c r="D2" s="13">
+        <v>24</v>
+      </c>
+      <c r="E2" s="13">
+        <v>43</v>
+      </c>
+      <c r="F2" s="14">
+        <f>SUM(C2:E2)</f>
+        <v>126</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="10">
+        <v>33</v>
+      </c>
+      <c r="D3" s="10">
+        <v>43</v>
+      </c>
+      <c r="E3" s="10">
+        <v>53</v>
+      </c>
+      <c r="F3" s="11">
+        <f>SUM(C3:E3)</f>
+        <v>129</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3">
+        <f>LOOKUP(I3,B1:B11,C1:C11)</f>
+        <v>53</v>
+      </c>
+      <c r="K3">
+        <f>LOOKUP(I3,B1:B11,D1:D11)</f>
+        <v>42</v>
+      </c>
+      <c r="L3">
+        <f>LOOKUP(I3,B1:B11,E1:E11)</f>
+        <v>94</v>
+      </c>
+      <c r="M3">
+        <f>LOOKUP(I3,B1:B11,F1:F11)</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="10">
+        <v>67</v>
+      </c>
+      <c r="D4" s="10">
+        <v>86</v>
+      </c>
+      <c r="E4" s="10">
+        <v>54</v>
+      </c>
+      <c r="F4" s="11">
+        <f>SUM(C4:E4)</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="10">
+        <v>54</v>
+      </c>
+      <c r="D5" s="10">
+        <v>43</v>
+      </c>
+      <c r="E5" s="10">
+        <v>43</v>
+      </c>
+      <c r="F5" s="11">
+        <f>SUM(C5:E5)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="13">
+        <v>74</v>
+      </c>
+      <c r="D6" s="13">
+        <v>54</v>
+      </c>
+      <c r="E6" s="13">
+        <v>34</v>
+      </c>
+      <c r="F6" s="14">
+        <f>SUM(C6:E6)</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="13">
+        <v>90</v>
+      </c>
+      <c r="D7" s="13">
+        <v>90</v>
+      </c>
+      <c r="E7" s="13">
+        <v>12</v>
+      </c>
+      <c r="F7" s="14">
+        <f>SUM(C7:E7)</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>8</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="13">
+        <v>53</v>
+      </c>
+      <c r="D8" s="13">
+        <v>42</v>
+      </c>
+      <c r="E8" s="13">
+        <v>94</v>
+      </c>
+      <c r="F8" s="14">
+        <f>SUM(C8:E8)</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="10">
+        <v>42</v>
+      </c>
+      <c r="D9" s="10">
+        <v>66</v>
+      </c>
+      <c r="E9" s="10">
+        <v>43</v>
+      </c>
+      <c r="F9" s="11">
+        <f>SUM(C9:E9)</f>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>2</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="13">
+        <v>43</v>
+      </c>
+      <c r="D10" s="13">
+        <v>14</v>
+      </c>
+      <c r="E10" s="13">
+        <v>69</v>
+      </c>
+      <c r="F10" s="14">
+        <f>SUM(C10:E10)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="34">
+        <v>5</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="35">
+        <v>21</v>
+      </c>
+      <c r="D11" s="35">
+        <v>45</v>
+      </c>
+      <c r="E11" s="35">
+        <v>42</v>
+      </c>
+      <c r="F11" s="36">
+        <f>SUM(C11:E11)</f>
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F11">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="I1:M1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
+      <formula1>$B$2:$B$11</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="12">
+        <v>10</v>
+      </c>
+      <c r="C2" s="13">
+        <v>59</v>
+      </c>
+      <c r="D2" s="13">
+        <v>24</v>
+      </c>
+      <c r="E2" s="13">
+        <v>43</v>
+      </c>
+      <c r="F2" s="14">
+        <f>SUM(C2:E2)</f>
+        <v>126</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2">
+        <f>VLOOKUP(I1,A1:F11,2,FALSE)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>33</v>
+      </c>
+      <c r="D3" s="10">
+        <v>43</v>
+      </c>
+      <c r="E3" s="10">
+        <v>53</v>
+      </c>
+      <c r="F3" s="11">
+        <f>SUM(C3:E3)</f>
+        <v>129</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <f>VLOOKUP(I1,A1:F11,3,0)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10">
+        <v>67</v>
+      </c>
+      <c r="D4" s="10">
+        <v>86</v>
+      </c>
+      <c r="E4" s="10">
+        <v>54</v>
+      </c>
+      <c r="F4" s="11">
+        <f>SUM(C4:E4)</f>
+        <v>207</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4">
+        <f>VLOOKUP(I1,A1:F11,4,0)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="9">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
+        <v>54</v>
+      </c>
+      <c r="D5" s="10">
+        <v>43</v>
+      </c>
+      <c r="E5" s="10">
+        <v>43</v>
+      </c>
+      <c r="F5" s="11">
+        <f>SUM(C5:E5)</f>
+        <v>140</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <f>VLOOKUP(I1,A1:F11,5,0)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13">
+        <v>74</v>
+      </c>
+      <c r="D6" s="13">
+        <v>54</v>
+      </c>
+      <c r="E6" s="13">
+        <v>34</v>
+      </c>
+      <c r="F6" s="14">
+        <f>SUM(C6:E6)</f>
+        <v>162</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6">
+        <f>VLOOKUP(I1,A1:F11,6,0)</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="12">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13">
+        <v>90</v>
+      </c>
+      <c r="D7" s="13">
+        <v>90</v>
+      </c>
+      <c r="E7" s="13">
+        <v>12</v>
+      </c>
+      <c r="F7" s="14">
+        <f>SUM(C7:E7)</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="12">
+        <v>8</v>
+      </c>
+      <c r="C8" s="13">
+        <v>53</v>
+      </c>
+      <c r="D8" s="13">
+        <v>42</v>
+      </c>
+      <c r="E8" s="13">
+        <v>94</v>
+      </c>
+      <c r="F8" s="14">
+        <f>SUM(C8:E8)</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="9">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10">
+        <v>42</v>
+      </c>
+      <c r="D9" s="10">
+        <v>66</v>
+      </c>
+      <c r="E9" s="10">
+        <v>43</v>
+      </c>
+      <c r="F9" s="11">
+        <f>SUM(C9:E9)</f>
+        <v>151</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="12">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13">
+        <v>43</v>
+      </c>
+      <c r="D10" s="13">
+        <v>14</v>
+      </c>
+      <c r="E10" s="13">
+        <v>69</v>
+      </c>
+      <c r="F10" s="14">
+        <f>SUM(C10:E10)</f>
+        <v>126</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="e">
+        <f>VLOOKUP(I9,A1:F11,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="34">
+        <v>5</v>
+      </c>
+      <c r="C11" s="35">
+        <v>21</v>
+      </c>
+      <c r="D11" s="35">
+        <v>45</v>
+      </c>
+      <c r="E11" s="35">
+        <v>42</v>
+      </c>
+      <c r="F11" s="36">
+        <f>SUM(C11:E11)</f>
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
+      <formula1>$A$2:$A$11</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9">
+        <v>7</v>
+      </c>
+      <c r="F2" s="12">
+        <v>4</v>
+      </c>
+      <c r="G2" s="12">
+        <v>6</v>
+      </c>
+      <c r="H2" s="12">
+        <v>8</v>
+      </c>
+      <c r="I2" s="9">
+        <v>9</v>
+      </c>
+      <c r="J2" s="12">
+        <v>2</v>
+      </c>
+      <c r="K2" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="13">
+        <v>59</v>
+      </c>
+      <c r="C3" s="10">
+        <v>33</v>
+      </c>
+      <c r="D3" s="10">
+        <v>67</v>
+      </c>
+      <c r="E3" s="10">
+        <v>54</v>
+      </c>
+      <c r="F3" s="13">
+        <v>74</v>
+      </c>
+      <c r="G3" s="13">
+        <v>90</v>
+      </c>
+      <c r="H3" s="13">
+        <v>53</v>
+      </c>
+      <c r="I3" s="10">
+        <v>42</v>
+      </c>
+      <c r="J3" s="13">
+        <v>43</v>
+      </c>
+      <c r="K3" s="35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="13">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43</v>
+      </c>
+      <c r="D4" s="10">
+        <v>86</v>
+      </c>
+      <c r="E4" s="10">
+        <v>43</v>
+      </c>
+      <c r="F4" s="13">
+        <v>54</v>
+      </c>
+      <c r="G4" s="13">
+        <v>90</v>
+      </c>
+      <c r="H4" s="13">
+        <v>42</v>
+      </c>
+      <c r="I4" s="10">
+        <v>66</v>
+      </c>
+      <c r="J4" s="13">
+        <v>14</v>
+      </c>
+      <c r="K4" s="35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="13">
+        <v>43</v>
+      </c>
+      <c r="C5" s="10">
+        <v>53</v>
+      </c>
+      <c r="D5" s="10">
+        <v>54</v>
+      </c>
+      <c r="E5" s="10">
+        <v>43</v>
+      </c>
+      <c r="F5" s="13">
+        <v>34</v>
+      </c>
+      <c r="G5" s="13">
+        <v>12</v>
+      </c>
+      <c r="H5" s="13">
+        <v>94</v>
+      </c>
+      <c r="I5" s="10">
+        <v>43</v>
+      </c>
+      <c r="J5" s="13">
+        <v>69</v>
+      </c>
+      <c r="K5" s="35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="14">
+        <f>SUM(B3:B5)</f>
+        <v>126</v>
+      </c>
+      <c r="C6" s="11">
+        <f>SUM(C3:C5)</f>
+        <v>129</v>
+      </c>
+      <c r="D6" s="11">
+        <f>SUM(D3:D5)</f>
+        <v>207</v>
+      </c>
+      <c r="E6" s="11">
+        <f>SUM(E3:E5)</f>
+        <v>140</v>
+      </c>
+      <c r="F6" s="14">
+        <f>SUM(F3:F5)</f>
+        <v>162</v>
+      </c>
+      <c r="G6" s="14">
+        <f>SUM(G3:G5)</f>
+        <v>192</v>
+      </c>
+      <c r="H6" s="14">
+        <f>SUM(H3:H5)</f>
+        <v>189</v>
+      </c>
+      <c r="I6" s="11">
+        <f>SUM(I3:I5)</f>
+        <v>151</v>
+      </c>
+      <c r="J6" s="14">
+        <f>SUM(J3:J5)</f>
+        <v>126</v>
+      </c>
+      <c r="K6" s="36">
+        <f>SUM(K3:K5)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <f>HLOOKUP(C11,1:6,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <f>HLOOKUP(C11,1:6,3,0)</f>
+        <v>74</v>
+      </c>
+      <c r="F11">
+        <f>HLOOKUP(C11,1:6,4,0)</f>
+        <v>54</v>
+      </c>
+      <c r="G11">
+        <f>HLOOKUP(C11,1:6,5,0)</f>
+        <v>34</v>
+      </c>
+      <c r="H11">
+        <f>HLOOKUP(C11,1:6,6,0)</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="12">
+        <v>10</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3</v>
+      </c>
+      <c r="E19" s="9">
+        <v>7</v>
+      </c>
+      <c r="F19" s="12">
+        <v>4</v>
+      </c>
+      <c r="G19" s="12">
+        <v>6</v>
+      </c>
+      <c r="H19" s="12">
+        <v>8</v>
+      </c>
+      <c r="I19" s="9">
+        <v>9</v>
+      </c>
+      <c r="J19" s="12">
+        <v>2</v>
+      </c>
+      <c r="K19" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="13">
+        <v>59</v>
+      </c>
+      <c r="C20" s="10">
+        <v>33</v>
+      </c>
+      <c r="D20" s="10">
+        <v>67</v>
+      </c>
+      <c r="E20" s="10">
+        <v>54</v>
+      </c>
+      <c r="F20" s="13">
+        <v>74</v>
+      </c>
+      <c r="G20" s="13">
+        <v>90</v>
+      </c>
+      <c r="H20" s="13">
+        <v>53</v>
+      </c>
+      <c r="I20" s="10">
+        <v>42</v>
+      </c>
+      <c r="J20" s="13">
+        <v>43</v>
+      </c>
+      <c r="K20" s="35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="13">
+        <v>24</v>
+      </c>
+      <c r="C21" s="10">
+        <v>43</v>
+      </c>
+      <c r="D21" s="10">
+        <v>86</v>
+      </c>
+      <c r="E21" s="10">
+        <v>43</v>
+      </c>
+      <c r="F21" s="13">
+        <v>54</v>
+      </c>
+      <c r="G21" s="13">
+        <v>90</v>
+      </c>
+      <c r="H21" s="13">
+        <v>42</v>
+      </c>
+      <c r="I21" s="10">
+        <v>66</v>
+      </c>
+      <c r="J21" s="13">
+        <v>14</v>
+      </c>
+      <c r="K21" s="35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="13">
+        <v>43</v>
+      </c>
+      <c r="C22" s="10">
+        <v>53</v>
+      </c>
+      <c r="D22" s="10">
+        <v>54</v>
+      </c>
+      <c r="E22" s="10">
+        <v>43</v>
+      </c>
+      <c r="F22" s="13">
+        <v>34</v>
+      </c>
+      <c r="G22" s="13">
+        <v>12</v>
+      </c>
+      <c r="H22" s="13">
+        <v>94</v>
+      </c>
+      <c r="I22" s="10">
+        <v>43</v>
+      </c>
+      <c r="J22" s="13">
+        <v>69</v>
+      </c>
+      <c r="K22" s="35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="14">
+        <f>SUM(B20:B22)</f>
+        <v>126</v>
+      </c>
+      <c r="C23" s="11">
+        <f>SUM(C20:C22)</f>
+        <v>129</v>
+      </c>
+      <c r="D23" s="11">
+        <f>SUM(D20:D22)</f>
+        <v>207</v>
+      </c>
+      <c r="E23" s="11">
+        <f>SUM(E20:E22)</f>
+        <v>140</v>
+      </c>
+      <c r="F23" s="14">
+        <f>SUM(F20:F22)</f>
+        <v>162</v>
+      </c>
+      <c r="G23" s="14">
+        <f>SUM(G20:G22)</f>
+        <v>192</v>
+      </c>
+      <c r="H23" s="14">
+        <f>SUM(H20:H22)</f>
+        <v>189</v>
+      </c>
+      <c r="I23" s="11">
+        <f>SUM(I20:I22)</f>
+        <v>151</v>
+      </c>
+      <c r="J23" s="14">
+        <f>SUM(J20:J22)</f>
+        <v>126</v>
+      </c>
+      <c r="K23" s="36">
+        <f>SUM(K20:K22)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <f>HLOOKUP(C27,18:23,2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C27">
+      <formula1>$B$1:$K$1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Important Formulas.xlsx
+++ b/Important Formulas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Frequency" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,9 @@
     <sheet name="Lookup" sheetId="3" r:id="rId3"/>
     <sheet name="VLookup" sheetId="4" r:id="rId4"/>
     <sheet name="HLookup" sheetId="5" r:id="rId5"/>
+    <sheet name="Absolute vs Relavtive reference" sheetId="6" r:id="rId6"/>
+    <sheet name="sumifs" sheetId="7" r:id="rId7"/>
+    <sheet name="countifs" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Index &amp; Match'!$A$1:$F$11</definedName>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="88">
   <si>
     <r>
       <t>FREQUENCY</t>
@@ -197,6 +200,120 @@
   </si>
   <si>
     <t>Lookup by name</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Total Marks of Subjects</t>
+  </si>
+  <si>
+    <t>Percentage of Math
+out of Total</t>
+  </si>
+  <si>
+    <t>Percentage of English
+out of Total</t>
+  </si>
+  <si>
+    <t>Percentage of History
+out of Total</t>
+  </si>
+  <si>
+    <t>Sales Record</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Brand B</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Bob Brown</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Charlie Davis</t>
+  </si>
+  <si>
+    <t>Brand C</t>
+  </si>
+  <si>
+    <t>Brand D</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Alice Johnson</t>
+  </si>
+  <si>
+    <t>Brand A</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>Total Los Angeles Amount</t>
+  </si>
+  <si>
+    <t>Sum of Los Angeles Amount &amp; Brand B Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many times Brand B &amp; Brand C is sold  </t>
+  </si>
+  <si>
+    <t>How many times Brand B is sold in Phoenix city</t>
+  </si>
+  <si>
+    <t>How many times Brand B &amp; Brand C is sold in Phoenix City</t>
+  </si>
+  <si>
+    <t>Sum of LosAnges &amp; Phoenix Amount in Brand B</t>
   </si>
 </sst>
 </file>
@@ -235,7 +352,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,8 +387,13 @@
         <bgColor theme="5" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -436,14 +558,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -477,6 +615,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -492,17 +634,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="60% - Accent4" xfId="3" builtinId="44"/>
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
+    <cellStyle name="Accent3" xfId="4" builtinId="37"/>
     <cellStyle name="Accent4" xfId="2" builtinId="41"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1764,14 +1928,14 @@
       <c r="C2">
         <v>20</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2100,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,12 +2435,12 @@
         <v>46</v>
       </c>
       <c r="I6" s="19"/>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="31"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="35"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
@@ -2409,12 +2573,12 @@
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -2511,29 +2675,29 @@
       </c>
     </row>
     <row r="20" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
     </row>
     <row r="21" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
     </row>
     <row r="22" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="J22" s="33">
+      <c r="J22" s="37">
         <f>INDEX(A1:F11,H27,H24)</f>
         <v>45</v>
       </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
     </row>
     <row r="23" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
@@ -2614,13 +2778,13 @@
       <c r="F1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -2639,7 +2803,7 @@
         <v>43</v>
       </c>
       <c r="F2" s="14">
-        <f>SUM(C2:E2)</f>
+        <f t="shared" ref="F2:F11" si="0">SUM(C2:E2)</f>
         <v>126</v>
       </c>
       <c r="I2" s="7" t="s">
@@ -2675,7 +2839,7 @@
         <v>53</v>
       </c>
       <c r="F3" s="11">
-        <f>SUM(C3:E3)</f>
+        <f t="shared" si="0"/>
         <v>129</v>
       </c>
       <c r="I3" t="s">
@@ -2715,7 +2879,7 @@
         <v>54</v>
       </c>
       <c r="F4" s="11">
-        <f>SUM(C4:E4)</f>
+        <f t="shared" si="0"/>
         <v>207</v>
       </c>
     </row>
@@ -2736,7 +2900,7 @@
         <v>43</v>
       </c>
       <c r="F5" s="11">
-        <f>SUM(C5:E5)</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
     </row>
@@ -2757,7 +2921,7 @@
         <v>34</v>
       </c>
       <c r="F6" s="14">
-        <f>SUM(C6:E6)</f>
+        <f t="shared" si="0"/>
         <v>162</v>
       </c>
     </row>
@@ -2778,7 +2942,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="14">
-        <f>SUM(C7:E7)</f>
+        <f t="shared" si="0"/>
         <v>192</v>
       </c>
     </row>
@@ -2799,7 +2963,7 @@
         <v>94</v>
       </c>
       <c r="F8" s="14">
-        <f>SUM(C8:E8)</f>
+        <f t="shared" si="0"/>
         <v>189</v>
       </c>
     </row>
@@ -2820,7 +2984,7 @@
         <v>43</v>
       </c>
       <c r="F9" s="11">
-        <f>SUM(C9:E9)</f>
+        <f t="shared" si="0"/>
         <v>151</v>
       </c>
     </row>
@@ -2841,28 +3005,28 @@
         <v>69</v>
       </c>
       <c r="F10" s="14">
-        <f>SUM(C10:E10)</f>
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+      <c r="A11" s="29">
         <v>5</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="30">
         <v>21</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="30">
         <v>45</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="30">
         <v>42</v>
       </c>
-      <c r="F11" s="36">
-        <f>SUM(C11:E11)</f>
+      <c r="F11" s="31">
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
     </row>
@@ -2912,7 +3076,7 @@
       <c r="F1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="32" t="s">
         <v>27</v>
       </c>
       <c r="I1" t="s">
@@ -2936,7 +3100,7 @@
         <v>43</v>
       </c>
       <c r="F2" s="14">
-        <f>SUM(C2:E2)</f>
+        <f t="shared" ref="F2:F11" si="0">SUM(C2:E2)</f>
         <v>126</v>
       </c>
       <c r="H2" t="s">
@@ -2964,7 +3128,7 @@
         <v>53</v>
       </c>
       <c r="F3" s="11">
-        <f>SUM(C3:E3)</f>
+        <f t="shared" si="0"/>
         <v>129</v>
       </c>
       <c r="H3" t="s">
@@ -2992,7 +3156,7 @@
         <v>54</v>
       </c>
       <c r="F4" s="11">
-        <f>SUM(C4:E4)</f>
+        <f t="shared" si="0"/>
         <v>207</v>
       </c>
       <c r="H4" t="s">
@@ -3020,7 +3184,7 @@
         <v>43</v>
       </c>
       <c r="F5" s="11">
-        <f>SUM(C5:E5)</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H5" t="s">
@@ -3048,7 +3212,7 @@
         <v>34</v>
       </c>
       <c r="F6" s="14">
-        <f>SUM(C6:E6)</f>
+        <f t="shared" si="0"/>
         <v>162</v>
       </c>
       <c r="H6" t="s">
@@ -3076,7 +3240,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="14">
-        <f>SUM(C7:E7)</f>
+        <f t="shared" si="0"/>
         <v>192</v>
       </c>
     </row>
@@ -3097,7 +3261,7 @@
         <v>94</v>
       </c>
       <c r="F8" s="14">
-        <f>SUM(C8:E8)</f>
+        <f t="shared" si="0"/>
         <v>189</v>
       </c>
     </row>
@@ -3118,7 +3282,7 @@
         <v>43</v>
       </c>
       <c r="F9" s="11">
-        <f>SUM(C9:E9)</f>
+        <f t="shared" si="0"/>
         <v>151</v>
       </c>
       <c r="H9" t="s">
@@ -3145,7 +3309,7 @@
         <v>69</v>
       </c>
       <c r="F10" s="14">
-        <f>SUM(C10:E10)</f>
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
       <c r="H10" t="s">
@@ -3157,23 +3321,23 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="29">
         <v>5</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="30">
         <v>21</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="30">
         <v>45</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="30">
         <v>42</v>
       </c>
-      <c r="F11" s="36">
-        <f>SUM(C11:E11)</f>
+      <c r="F11" s="31">
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
     </row>
@@ -3192,7 +3356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -3229,7 +3393,7 @@
       <c r="J1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="30" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3264,7 +3428,7 @@
       <c r="J2" s="12">
         <v>2</v>
       </c>
-      <c r="K2" s="34">
+      <c r="K2" s="29">
         <v>5</v>
       </c>
     </row>
@@ -3299,7 +3463,7 @@
       <c r="J3" s="13">
         <v>43</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="30">
         <v>21</v>
       </c>
     </row>
@@ -3334,7 +3498,7 @@
       <c r="J4" s="13">
         <v>14</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="30">
         <v>45</v>
       </c>
     </row>
@@ -3369,7 +3533,7 @@
       <c r="J5" s="13">
         <v>69</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="30">
         <v>42</v>
       </c>
     </row>
@@ -3378,43 +3542,43 @@
         <v>31</v>
       </c>
       <c r="B6" s="14">
-        <f>SUM(B3:B5)</f>
+        <f t="shared" ref="B6:K6" si="0">SUM(B3:B5)</f>
         <v>126</v>
       </c>
       <c r="C6" s="11">
-        <f>SUM(C3:C5)</f>
+        <f t="shared" si="0"/>
         <v>129</v>
       </c>
       <c r="D6" s="11">
-        <f>SUM(D3:D5)</f>
+        <f t="shared" si="0"/>
         <v>207</v>
       </c>
       <c r="E6" s="11">
-        <f>SUM(E3:E5)</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="F6" s="14">
-        <f>SUM(F3:F5)</f>
+        <f t="shared" si="0"/>
         <v>162</v>
       </c>
       <c r="G6" s="14">
-        <f>SUM(G3:G5)</f>
+        <f t="shared" si="0"/>
         <v>192</v>
       </c>
       <c r="H6" s="14">
-        <f>SUM(H3:H5)</f>
+        <f t="shared" si="0"/>
         <v>189</v>
       </c>
       <c r="I6" s="11">
-        <f>SUM(I3:I5)</f>
+        <f t="shared" si="0"/>
         <v>151</v>
       </c>
       <c r="J6" s="14">
-        <f>SUM(J3:J5)</f>
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="K6" s="36">
-        <f>SUM(K3:K5)</f>
+      <c r="K6" s="31">
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
     </row>
@@ -3494,7 +3658,7 @@
       <c r="J18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="35" t="s">
+      <c r="K18" s="30" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3529,7 +3693,7 @@
       <c r="J19" s="12">
         <v>2</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="29">
         <v>5</v>
       </c>
     </row>
@@ -3564,7 +3728,7 @@
       <c r="J20" s="13">
         <v>43</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="30">
         <v>21</v>
       </c>
     </row>
@@ -3599,7 +3763,7 @@
       <c r="J21" s="13">
         <v>14</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="30">
         <v>45</v>
       </c>
     </row>
@@ -3634,7 +3798,7 @@
       <c r="J22" s="13">
         <v>69</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="30">
         <v>42</v>
       </c>
     </row>
@@ -3643,43 +3807,43 @@
         <v>31</v>
       </c>
       <c r="B23" s="14">
-        <f>SUM(B20:B22)</f>
+        <f t="shared" ref="B23:K23" si="1">SUM(B20:B22)</f>
         <v>126</v>
       </c>
       <c r="C23" s="11">
-        <f>SUM(C20:C22)</f>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="D23" s="11">
-        <f>SUM(D20:D22)</f>
+        <f t="shared" si="1"/>
         <v>207</v>
       </c>
       <c r="E23" s="11">
-        <f>SUM(E20:E22)</f>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="F23" s="14">
-        <f>SUM(F20:F22)</f>
+        <f t="shared" si="1"/>
         <v>162</v>
       </c>
       <c r="G23" s="14">
-        <f>SUM(G20:G22)</f>
+        <f t="shared" si="1"/>
         <v>192</v>
       </c>
       <c r="H23" s="14">
-        <f>SUM(H20:H22)</f>
+        <f t="shared" si="1"/>
         <v>189</v>
       </c>
       <c r="I23" s="11">
-        <f>SUM(I20:I22)</f>
+        <f t="shared" si="1"/>
         <v>151</v>
       </c>
       <c r="J23" s="14">
-        <f>SUM(J20:J22)</f>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="K23" s="36">
-        <f>SUM(K20:K22)</f>
+      <c r="K23" s="31">
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
     </row>
@@ -3721,4 +3885,2554 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10">
+        <v>33</v>
+      </c>
+      <c r="D2" s="10">
+        <v>43</v>
+      </c>
+      <c r="E2" s="10">
+        <v>53</v>
+      </c>
+      <c r="F2" s="11">
+        <f>SUM(C2:E2)</f>
+        <v>129</v>
+      </c>
+      <c r="G2" s="44">
+        <f>F2/$G$15*100</f>
+        <v>43</v>
+      </c>
+      <c r="H2" s="44">
+        <f>C2/$F2*100</f>
+        <v>25.581395348837212</v>
+      </c>
+      <c r="I2" s="44">
+        <f>D2/$F2*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="J2" s="44">
+        <f t="shared" ref="I2:J11" si="0">E2/$F2*100</f>
+        <v>41.085271317829459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="13">
+        <v>43</v>
+      </c>
+      <c r="D3" s="13">
+        <v>14</v>
+      </c>
+      <c r="E3" s="13">
+        <v>69</v>
+      </c>
+      <c r="F3" s="11">
+        <f>SUM(C3:E3)</f>
+        <v>126</v>
+      </c>
+      <c r="G3" s="44">
+        <f>F3/$G$15*100</f>
+        <v>42</v>
+      </c>
+      <c r="H3" s="44">
+        <f t="shared" ref="H3:H11" si="1">C3/$F3*100</f>
+        <v>34.126984126984127</v>
+      </c>
+      <c r="I3" s="44">
+        <f t="shared" ref="I3:I11" si="2">D3/$F3*100</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="J3" s="44">
+        <f t="shared" si="0"/>
+        <v>54.761904761904766</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="10">
+        <v>67</v>
+      </c>
+      <c r="D4" s="10">
+        <v>86</v>
+      </c>
+      <c r="E4" s="10">
+        <v>54</v>
+      </c>
+      <c r="F4" s="11">
+        <f>SUM(C4:E4)</f>
+        <v>207</v>
+      </c>
+      <c r="G4" s="44">
+        <f>F4/$G$15*100</f>
+        <v>69</v>
+      </c>
+      <c r="H4" s="44">
+        <f t="shared" si="1"/>
+        <v>32.367149758454104</v>
+      </c>
+      <c r="I4" s="44">
+        <f t="shared" si="2"/>
+        <v>41.545893719806763</v>
+      </c>
+      <c r="J4" s="44">
+        <f t="shared" si="0"/>
+        <v>26.086956521739129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="13">
+        <v>74</v>
+      </c>
+      <c r="D5" s="13">
+        <v>54</v>
+      </c>
+      <c r="E5" s="13">
+        <v>34</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" ref="F5:F11" si="3">SUM(C5:E5)</f>
+        <v>162</v>
+      </c>
+      <c r="G5" s="44">
+        <f>F5/$G$15*100</f>
+        <v>54</v>
+      </c>
+      <c r="H5" s="44">
+        <f t="shared" si="1"/>
+        <v>45.679012345679013</v>
+      </c>
+      <c r="I5" s="44">
+        <f t="shared" si="2"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="J5" s="44">
+        <f t="shared" si="0"/>
+        <v>20.987654320987652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="10">
+        <v>21</v>
+      </c>
+      <c r="D6" s="10">
+        <v>45</v>
+      </c>
+      <c r="E6" s="10">
+        <v>42</v>
+      </c>
+      <c r="F6" s="11">
+        <f>SUM(C6:E6)</f>
+        <v>108</v>
+      </c>
+      <c r="G6" s="44">
+        <f>F6/$G$15*100</f>
+        <v>36</v>
+      </c>
+      <c r="H6" s="44">
+        <f t="shared" si="1"/>
+        <v>19.444444444444446</v>
+      </c>
+      <c r="I6" s="44">
+        <f t="shared" si="2"/>
+        <v>41.666666666666671</v>
+      </c>
+      <c r="J6" s="44">
+        <f t="shared" si="0"/>
+        <v>38.888888888888893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="13">
+        <v>90</v>
+      </c>
+      <c r="D7" s="13">
+        <v>90</v>
+      </c>
+      <c r="E7" s="13">
+        <v>12</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="3"/>
+        <v>192</v>
+      </c>
+      <c r="G7" s="44">
+        <f>F7/$G$15*100</f>
+        <v>64</v>
+      </c>
+      <c r="H7" s="44">
+        <f t="shared" si="1"/>
+        <v>46.875</v>
+      </c>
+      <c r="I7" s="44">
+        <f t="shared" si="2"/>
+        <v>46.875</v>
+      </c>
+      <c r="J7" s="44">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="10">
+        <v>54</v>
+      </c>
+      <c r="D8" s="10">
+        <v>43</v>
+      </c>
+      <c r="E8" s="10">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="G8" s="44">
+        <f>F8/$G$15*100</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="H8" s="44">
+        <f t="shared" si="1"/>
+        <v>38.571428571428577</v>
+      </c>
+      <c r="I8" s="44">
+        <f t="shared" si="2"/>
+        <v>30.714285714285715</v>
+      </c>
+      <c r="J8" s="44">
+        <f t="shared" si="0"/>
+        <v>30.714285714285715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="13">
+        <v>53</v>
+      </c>
+      <c r="D9" s="13">
+        <v>42</v>
+      </c>
+      <c r="E9" s="13">
+        <v>94</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="3"/>
+        <v>189</v>
+      </c>
+      <c r="G9" s="44">
+        <f>F9/$G$15*100</f>
+        <v>63</v>
+      </c>
+      <c r="H9" s="44">
+        <f t="shared" si="1"/>
+        <v>28.042328042328041</v>
+      </c>
+      <c r="I9" s="44">
+        <f t="shared" si="2"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="J9" s="44">
+        <f t="shared" si="0"/>
+        <v>49.735449735449734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="10">
+        <v>42</v>
+      </c>
+      <c r="D10" s="10">
+        <v>66</v>
+      </c>
+      <c r="E10" s="10">
+        <v>43</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
+      <c r="G10" s="44">
+        <f>F10/$G$15*100</f>
+        <v>50.333333333333329</v>
+      </c>
+      <c r="H10" s="44">
+        <f t="shared" si="1"/>
+        <v>27.814569536423839</v>
+      </c>
+      <c r="I10" s="44">
+        <f t="shared" si="2"/>
+        <v>43.70860927152318</v>
+      </c>
+      <c r="J10" s="44">
+        <f t="shared" si="0"/>
+        <v>28.476821192052981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4">
+        <v>59</v>
+      </c>
+      <c r="D11" s="4">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4">
+        <v>43</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="G11" s="44">
+        <f>F11/$G$15*100</f>
+        <v>42</v>
+      </c>
+      <c r="H11" s="44">
+        <f t="shared" si="1"/>
+        <v>46.825396825396822</v>
+      </c>
+      <c r="I11" s="44">
+        <f t="shared" si="2"/>
+        <v>19.047619047619047</v>
+      </c>
+      <c r="J11" s="44">
+        <f t="shared" si="0"/>
+        <v>34.126984126984127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11">
+      <formula1>$J$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>414.44</v>
+      </c>
+      <c r="H3">
+        <f>SUMIF(B3:B51,"Los Angeles",F3:F51)+SUMIF(B3:B51,"Phoenix",F3:F51)</f>
+        <v>10342.540000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4">
+        <v>37</v>
+      </c>
+      <c r="F4">
+        <v>314.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5">
+        <v>62</v>
+      </c>
+      <c r="F5">
+        <v>559.20000000000005</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6">
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <v>126.9</v>
+      </c>
+      <c r="H6">
+        <f>SUMIFS(F3:F51,A3:A51,"Brand B",B3:B51,"Los Angeles")</f>
+        <v>2596.4300000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7">
+        <v>46</v>
+      </c>
+      <c r="F7">
+        <v>758.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8">
+        <v>61</v>
+      </c>
+      <c r="F8">
+        <v>280.95</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>872.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>742.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>156.66999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>321.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>264.44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14">
+        <v>28</v>
+      </c>
+      <c r="F14">
+        <v>411.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15">
+        <v>77</v>
+      </c>
+      <c r="F15">
+        <v>853.48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16">
+        <v>85</v>
+      </c>
+      <c r="F16">
+        <v>369.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17">
+        <v>61</v>
+      </c>
+      <c r="F17">
+        <v>250.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18">
+        <v>41</v>
+      </c>
+      <c r="F18">
+        <v>39.93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>767.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20">
+        <v>62</v>
+      </c>
+      <c r="F20">
+        <v>942.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21">
+        <v>51</v>
+      </c>
+      <c r="F21">
+        <v>771.92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22">
+        <v>99</v>
+      </c>
+      <c r="F22">
+        <v>980.44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23">
+        <v>84</v>
+      </c>
+      <c r="F23">
+        <v>798.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>602.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25">
+        <v>98</v>
+      </c>
+      <c r="F25">
+        <v>53.41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26">
+        <v>71</v>
+      </c>
+      <c r="F26">
+        <v>669.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27">
+        <v>44</v>
+      </c>
+      <c r="F27">
+        <v>714.44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28">
+        <v>59</v>
+      </c>
+      <c r="F28">
+        <v>905.13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29">
+        <v>59</v>
+      </c>
+      <c r="F29">
+        <v>620.38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30">
+        <v>80</v>
+      </c>
+      <c r="F30">
+        <v>219.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31">
+        <v>77</v>
+      </c>
+      <c r="F31">
+        <v>436.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32">
+        <v>94</v>
+      </c>
+      <c r="F32">
+        <v>255.32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33">
+        <v>49</v>
+      </c>
+      <c r="F33">
+        <v>873.96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34">
+        <v>82</v>
+      </c>
+      <c r="F34">
+        <v>871.44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35">
+        <v>62</v>
+      </c>
+      <c r="F35">
+        <v>600.17999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36">
+        <v>50</v>
+      </c>
+      <c r="F36">
+        <v>248.13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37">
+        <v>24</v>
+      </c>
+      <c r="F37">
+        <v>375.08</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38">
+        <v>78</v>
+      </c>
+      <c r="F38">
+        <v>769.97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39">
+        <v>24</v>
+      </c>
+      <c r="F39">
+        <v>705.03</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40">
+        <v>91</v>
+      </c>
+      <c r="F40">
+        <v>44.77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41">
+        <v>76</v>
+      </c>
+      <c r="F41">
+        <v>448.87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42">
+        <v>51</v>
+      </c>
+      <c r="F42">
+        <v>363.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43">
+        <v>80</v>
+      </c>
+      <c r="F43">
+        <v>393.47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44">
+        <v>19</v>
+      </c>
+      <c r="F44">
+        <v>82.78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45">
+        <v>44</v>
+      </c>
+      <c r="F45">
+        <v>630.69000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46">
+        <v>44</v>
+      </c>
+      <c r="F46">
+        <v>594.52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47">
+        <v>76</v>
+      </c>
+      <c r="F47">
+        <v>849.96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48">
+        <v>15</v>
+      </c>
+      <c r="F48">
+        <v>477.08</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49">
+        <v>73</v>
+      </c>
+      <c r="F49">
+        <v>942.51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50">
+        <v>22</v>
+      </c>
+      <c r="F50">
+        <v>686.15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51">
+        <v>79</v>
+      </c>
+      <c r="F51">
+        <v>950.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView topLeftCell="D4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>414.44</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4">
+        <v>37</v>
+      </c>
+      <c r="F4">
+        <v>314.83</v>
+      </c>
+      <c r="I4">
+        <f>COUNTIF(A3:A51,"Brand B") + COUNTIF(A3:A51,"Brand C")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5">
+        <v>62</v>
+      </c>
+      <c r="F5">
+        <v>559.20000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6">
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <v>126.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7">
+        <v>46</v>
+      </c>
+      <c r="F7">
+        <v>758.61</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8">
+        <v>61</v>
+      </c>
+      <c r="F8">
+        <v>280.95</v>
+      </c>
+      <c r="I8">
+        <f>COUNTIFS(A3:A51,"Brand B",B3:B51,"Phoenix")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>872.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>742.42</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>156.66999999999999</v>
+      </c>
+      <c r="I11">
+        <f>COUNTIFS(A2:A51, "Brand B", B2:B51, "Phoenix") + COUNTIFS(A2:A51, "Brand C", B2:B51, "Phoenix")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>321.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>264.44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14">
+        <v>28</v>
+      </c>
+      <c r="F14">
+        <v>411.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15">
+        <v>77</v>
+      </c>
+      <c r="F15">
+        <v>853.48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16">
+        <v>85</v>
+      </c>
+      <c r="F16">
+        <v>369.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17">
+        <v>61</v>
+      </c>
+      <c r="F17">
+        <v>250.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18">
+        <v>41</v>
+      </c>
+      <c r="F18">
+        <v>39.93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>767.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20">
+        <v>62</v>
+      </c>
+      <c r="F20">
+        <v>942.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21">
+        <v>51</v>
+      </c>
+      <c r="F21">
+        <v>771.92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22">
+        <v>99</v>
+      </c>
+      <c r="F22">
+        <v>980.44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23">
+        <v>84</v>
+      </c>
+      <c r="F23">
+        <v>798.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>602.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25">
+        <v>98</v>
+      </c>
+      <c r="F25">
+        <v>53.41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26">
+        <v>71</v>
+      </c>
+      <c r="F26">
+        <v>669.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27">
+        <v>44</v>
+      </c>
+      <c r="F27">
+        <v>714.44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28">
+        <v>59</v>
+      </c>
+      <c r="F28">
+        <v>905.13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29">
+        <v>59</v>
+      </c>
+      <c r="F29">
+        <v>620.38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30">
+        <v>80</v>
+      </c>
+      <c r="F30">
+        <v>219.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31">
+        <v>77</v>
+      </c>
+      <c r="F31">
+        <v>436.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32">
+        <v>94</v>
+      </c>
+      <c r="F32">
+        <v>255.32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33">
+        <v>49</v>
+      </c>
+      <c r="F33">
+        <v>873.96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34">
+        <v>82</v>
+      </c>
+      <c r="F34">
+        <v>871.44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35">
+        <v>62</v>
+      </c>
+      <c r="F35">
+        <v>600.17999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36">
+        <v>50</v>
+      </c>
+      <c r="F36">
+        <v>248.13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37">
+        <v>24</v>
+      </c>
+      <c r="F37">
+        <v>375.08</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38">
+        <v>78</v>
+      </c>
+      <c r="F38">
+        <v>769.97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39">
+        <v>24</v>
+      </c>
+      <c r="F39">
+        <v>705.03</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40">
+        <v>91</v>
+      </c>
+      <c r="F40">
+        <v>44.77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41">
+        <v>76</v>
+      </c>
+      <c r="F41">
+        <v>448.87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42">
+        <v>51</v>
+      </c>
+      <c r="F42">
+        <v>363.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43">
+        <v>80</v>
+      </c>
+      <c r="F43">
+        <v>393.47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44">
+        <v>19</v>
+      </c>
+      <c r="F44">
+        <v>82.78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45">
+        <v>44</v>
+      </c>
+      <c r="F45">
+        <v>630.69000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46">
+        <v>44</v>
+      </c>
+      <c r="F46">
+        <v>594.52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47">
+        <v>76</v>
+      </c>
+      <c r="F47">
+        <v>849.96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48">
+        <v>15</v>
+      </c>
+      <c r="F48">
+        <v>477.08</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49">
+        <v>73</v>
+      </c>
+      <c r="F49">
+        <v>942.51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50">
+        <v>22</v>
+      </c>
+      <c r="F50">
+        <v>686.15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51">
+        <v>79</v>
+      </c>
+      <c r="F51">
+        <v>950.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Important Formulas.xlsx
+++ b/Important Formulas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Frequency" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,10 @@
     <sheet name="Absolute vs Relavtive reference" sheetId="6" r:id="rId6"/>
     <sheet name="sumifs" sheetId="7" r:id="rId7"/>
     <sheet name="countifs" sheetId="8" r:id="rId8"/>
+    <sheet name="Find &amp; Replace Formula" sheetId="10" r:id="rId9"/>
+    <sheet name="Mid , Len Formula" sheetId="11" r:id="rId10"/>
+    <sheet name="Get-Sheet-Name" sheetId="9" r:id="rId11"/>
+    <sheet name="Date Functions" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Index &amp; Match'!$A$1:$F$11</definedName>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="137">
   <si>
     <r>
       <t>FREQUENCY</t>
@@ -315,11 +319,161 @@
   <si>
     <t>Sum of LosAnges &amp; Phoenix Amount in Brand B</t>
   </si>
+  <si>
+    <t>1)  CELL</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>returns the full file path</t>
+  </si>
+  <si>
+    <t>Bob-Brown</t>
+  </si>
+  <si>
+    <t>John-Doe</t>
+  </si>
+  <si>
+    <t>Charlie-Davis</t>
+  </si>
+  <si>
+    <t>Alice-Johnson</t>
+  </si>
+  <si>
+    <t>Position of " - "</t>
+  </si>
+  <si>
+    <t>Customer-Name</t>
+  </si>
+  <si>
+    <t>2)  Find</t>
+  </si>
+  <si>
+    <t>3) MID</t>
+  </si>
+  <si>
+    <t>Mohd Hamza Ansari</t>
+  </si>
+  <si>
+    <t>Mid Formula</t>
+  </si>
+  <si>
+    <t>Len Formula</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>Returns Current Date</t>
+  </si>
+  <si>
+    <t>Returns Current Date &amp; Time</t>
+  </si>
+  <si>
+    <t>DATEVALUE</t>
+  </si>
+  <si>
+    <t>MARCH</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>Returns the year from a Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns the month from a date </t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>Returns the day of the month</t>
+  </si>
+  <si>
+    <t>It convert date in string into actual Date value</t>
+  </si>
+  <si>
+    <t>EOMONTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns the last day of a month </t>
+  </si>
+  <si>
+    <t>Basic Date Functions</t>
+  </si>
+  <si>
+    <t>Advance Date Functions</t>
+  </si>
+  <si>
+    <t>Date Calculations</t>
+  </si>
+  <si>
+    <t>Tomorrow</t>
+  </si>
+  <si>
+    <t>Yesterday</t>
+  </si>
+  <si>
+    <t>Adding Days</t>
+  </si>
+  <si>
+    <t>Adding Month</t>
+  </si>
+  <si>
+    <t>Next Month</t>
+  </si>
+  <si>
+    <t>Previous Month</t>
+  </si>
+  <si>
+    <t>Date Comparison</t>
+  </si>
+  <si>
+    <t>First Date</t>
+  </si>
+  <si>
+    <t>Second Date</t>
+  </si>
+  <si>
+    <t>Result of : First Date &gt; Second Date</t>
+  </si>
+  <si>
+    <t>Result of : First Date &lt; Second Date</t>
+  </si>
+  <si>
+    <t>Result of : First Date = Second Date</t>
+  </si>
+  <si>
+    <t>Get Day Name from a DATE</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Day Name</t>
+  </si>
+  <si>
+    <t>Get Month Name from a DATE</t>
+  </si>
+  <si>
+    <t>Month Name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-14009]dd\ mmmm\ yyyy;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,7 +547,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -573,6 +727,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -581,7 +759,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -619,6 +797,32 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -637,30 +841,25 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="4"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1603,6 +1802,195 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>160735</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>65484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>184547</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7262813" y="65484"/>
+          <a:ext cx="1946672" cy="2405063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1050"/>
+            <a:t>=REPLACE(old_text, start_num, num_chars, new_text)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>old_text</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>: The original text string.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>start_num</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>: The position to start replacing.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>num_chars</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>: The number of characters to replace.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" b="1"/>
+            <a:t>new_text</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>: The text to insert.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>65482</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>65485</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5887640" y="3369469"/>
+          <a:ext cx="3232545" cy="696516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>EDATE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t> : It is used to add or subtract months from a given Date</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1928,14 +2316,14 @@
       <c r="C2">
         <v>20</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2255,6 +2643,492 @@
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="str">
+        <f>MID(A2,6,LEN(A2))</f>
+        <v>Hamza Ansari</v>
+      </c>
+      <c r="C2">
+        <f>LEN(A2)</f>
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="str">
+        <f ca="1">CELL("filename",H5)</f>
+        <v>D:\[Important Formulas.xlsx]Get-Sheet-Name</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3">
+        <f ca="1">FIND("]",CELL("filename",A1))</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="str">
+        <f ca="1">MID(B2,B3+1,LEN(B2))</f>
+        <v>Get-Sheet-Name</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="51">
+        <f ca="1">TODAY()</f>
+        <v>45750</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="52">
+        <f ca="1">NOW()</f>
+        <v>45750.655210648147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="54">
+        <f ca="1">YEAR(TODAY())</f>
+        <v>2025</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="54">
+        <f ca="1">MONTH(TODAY())</f>
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="54">
+        <f ca="1">DAY(TODAY())</f>
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="54"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="53">
+        <f>DATEVALUE("01"&amp;D9&amp;"2025")</f>
+        <v>45717</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="53">
+        <f>EOMONTH(D11,0)</f>
+        <v>45716</v>
+      </c>
+      <c r="D11" s="53">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="57"/>
+      <c r="B12" s="53">
+        <f>EOMONTH(D11,1)</f>
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="57"/>
+      <c r="B13" s="53">
+        <f>EOMONTH(D11,-1)</f>
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="51">
+        <f ca="1">TODAY()</f>
+        <v>45750</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="51">
+        <f ca="1">B18+1</f>
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="51">
+        <f ca="1">TODAY()</f>
+        <v>45750</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="51">
+        <f ca="1">B19-1</f>
+        <v>45749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="51">
+        <f ca="1">TODAY()</f>
+        <v>45750</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="51">
+        <f ca="1">EDATE(B22,1)</f>
+        <v>45780</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="51">
+        <f ca="1">TODAY()</f>
+        <v>45750</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="51">
+        <f ca="1">EDATE(B23,-1)</f>
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="51">
+        <v>43926</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="51">
+        <v>43925</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" t="b">
+        <f>B26&gt;D26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="51">
+        <v>43926</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="51">
+        <v>43925</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" t="b">
+        <f>B27&lt;D27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="51">
+        <v>45658</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="51">
+        <v>45658</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" t="b">
+        <f>B28=D28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="56"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="51">
+        <f ca="1">TODAY()</f>
+        <v>45750</v>
+      </c>
+      <c r="B33" t="str">
+        <f ca="1">TEXT(A33,"dddd")</f>
+        <v>Thursday</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="53">
+        <v>44016</v>
+      </c>
+      <c r="B34" t="str">
+        <f>TEXT(A34,"dddd")</f>
+        <v>Saturday</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="56"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="51">
+        <f ca="1">TODAY()</f>
+        <v>45750</v>
+      </c>
+      <c r="B38" t="str">
+        <f ca="1">TEXT(A38,"mmmm")</f>
+        <v>April</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="53">
+        <v>44016</v>
+      </c>
+      <c r="B39" t="str">
+        <f>TEXT(A39,"mmm")</f>
+        <v>Jul</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A8:D8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2435,12 +3309,12 @@
         <v>46</v>
       </c>
       <c r="I6" s="19"/>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="35"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
@@ -2573,12 +3447,12 @@
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="35"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -2675,29 +3549,29 @@
       </c>
     </row>
     <row r="20" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="J20" s="34" t="s">
+      <c r="J20" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
     </row>
     <row r="21" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="J21" s="36" t="s">
+      <c r="J21" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
     </row>
     <row r="22" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="J22" s="37">
+      <c r="J22" s="47">
         <f>INDEX(A1:F11,H27,H24)</f>
         <v>45</v>
       </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
     </row>
     <row r="23" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
@@ -2778,13 +3652,13 @@
       <c r="F1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -3356,7 +4230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -3904,34 +4778,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="37" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3955,20 +4829,20 @@
         <f>SUM(C2:E2)</f>
         <v>129</v>
       </c>
-      <c r="G2" s="44">
-        <f>F2/$G$15*100</f>
+      <c r="G2" s="38">
+        <f t="shared" ref="G2:G11" si="0">F2/$G$15*100</f>
         <v>43</v>
       </c>
-      <c r="H2" s="44">
+      <c r="H2" s="38">
         <f>C2/$F2*100</f>
         <v>25.581395348837212</v>
       </c>
-      <c r="I2" s="44">
+      <c r="I2" s="38">
         <f>D2/$F2*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="J2" s="44">
-        <f t="shared" ref="I2:J11" si="0">E2/$F2*100</f>
+      <c r="J2" s="38">
+        <f t="shared" ref="J2:J11" si="1">E2/$F2*100</f>
         <v>41.085271317829459</v>
       </c>
     </row>
@@ -3992,20 +4866,20 @@
         <f>SUM(C3:E3)</f>
         <v>126</v>
       </c>
-      <c r="G3" s="44">
-        <f>F3/$G$15*100</f>
+      <c r="G3" s="38">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="H3" s="44">
-        <f t="shared" ref="H3:H11" si="1">C3/$F3*100</f>
+      <c r="H3" s="38">
+        <f t="shared" ref="H3:H11" si="2">C3/$F3*100</f>
         <v>34.126984126984127</v>
       </c>
-      <c r="I3" s="44">
-        <f t="shared" ref="I3:I11" si="2">D3/$F3*100</f>
+      <c r="I3" s="38">
+        <f t="shared" ref="I3:I11" si="3">D3/$F3*100</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="J3" s="44">
-        <f t="shared" si="0"/>
+      <c r="J3" s="38">
+        <f t="shared" si="1"/>
         <v>54.761904761904766</v>
       </c>
     </row>
@@ -4029,20 +4903,20 @@
         <f>SUM(C4:E4)</f>
         <v>207</v>
       </c>
-      <c r="G4" s="44">
-        <f>F4/$G$15*100</f>
+      <c r="G4" s="38">
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="38">
+        <f t="shared" si="2"/>
+        <v>32.367149758454104</v>
+      </c>
+      <c r="I4" s="38">
+        <f t="shared" si="3"/>
+        <v>41.545893719806763</v>
+      </c>
+      <c r="J4" s="38">
         <f t="shared" si="1"/>
-        <v>32.367149758454104</v>
-      </c>
-      <c r="I4" s="44">
-        <f t="shared" si="2"/>
-        <v>41.545893719806763</v>
-      </c>
-      <c r="J4" s="44">
-        <f t="shared" si="0"/>
         <v>26.086956521739129</v>
       </c>
     </row>
@@ -4063,23 +4937,23 @@
         <v>34</v>
       </c>
       <c r="F5" s="11">
-        <f t="shared" ref="F5:F11" si="3">SUM(C5:E5)</f>
+        <f t="shared" ref="F5:F11" si="4">SUM(C5:E5)</f>
         <v>162</v>
       </c>
-      <c r="G5" s="44">
-        <f>F5/$G$15*100</f>
+      <c r="G5" s="38">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="38">
+        <f t="shared" si="2"/>
+        <v>45.679012345679013</v>
+      </c>
+      <c r="I5" s="38">
+        <f t="shared" si="3"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="J5" s="38">
         <f t="shared" si="1"/>
-        <v>45.679012345679013</v>
-      </c>
-      <c r="I5" s="44">
-        <f t="shared" si="2"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="J5" s="44">
-        <f t="shared" si="0"/>
         <v>20.987654320987652</v>
       </c>
     </row>
@@ -4103,20 +4977,20 @@
         <f>SUM(C6:E6)</f>
         <v>108</v>
       </c>
-      <c r="G6" s="44">
-        <f>F6/$G$15*100</f>
+      <c r="G6" s="38">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="38">
+        <f t="shared" si="2"/>
+        <v>19.444444444444446</v>
+      </c>
+      <c r="I6" s="38">
+        <f t="shared" si="3"/>
+        <v>41.666666666666671</v>
+      </c>
+      <c r="J6" s="38">
         <f t="shared" si="1"/>
-        <v>19.444444444444446</v>
-      </c>
-      <c r="I6" s="44">
-        <f t="shared" si="2"/>
-        <v>41.666666666666671</v>
-      </c>
-      <c r="J6" s="44">
-        <f t="shared" si="0"/>
         <v>38.888888888888893</v>
       </c>
     </row>
@@ -4137,23 +5011,23 @@
         <v>12</v>
       </c>
       <c r="F7" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>192</v>
       </c>
-      <c r="G7" s="44">
-        <f>F7/$G$15*100</f>
+      <c r="G7" s="38">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="H7" s="44">
-        <f t="shared" si="1"/>
-        <v>46.875</v>
-      </c>
-      <c r="I7" s="44">
+      <c r="H7" s="38">
         <f t="shared" si="2"/>
         <v>46.875</v>
       </c>
-      <c r="J7" s="44">
-        <f t="shared" si="0"/>
+      <c r="I7" s="38">
+        <f t="shared" si="3"/>
+        <v>46.875</v>
+      </c>
+      <c r="J7" s="38">
+        <f t="shared" si="1"/>
         <v>6.25</v>
       </c>
     </row>
@@ -4174,23 +5048,23 @@
         <v>43</v>
       </c>
       <c r="F8" s="11">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="G8" s="38">
+        <f t="shared" si="0"/>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="H8" s="38">
+        <f t="shared" si="2"/>
+        <v>38.571428571428577</v>
+      </c>
+      <c r="I8" s="38">
         <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="G8" s="44">
-        <f>F8/$G$15*100</f>
-        <v>46.666666666666664</v>
-      </c>
-      <c r="H8" s="44">
+        <v>30.714285714285715</v>
+      </c>
+      <c r="J8" s="38">
         <f t="shared" si="1"/>
-        <v>38.571428571428577</v>
-      </c>
-      <c r="I8" s="44">
-        <f t="shared" si="2"/>
-        <v>30.714285714285715</v>
-      </c>
-      <c r="J8" s="44">
-        <f t="shared" si="0"/>
         <v>30.714285714285715</v>
       </c>
     </row>
@@ -4211,23 +5085,23 @@
         <v>94</v>
       </c>
       <c r="F9" s="11">
+        <f t="shared" si="4"/>
+        <v>189</v>
+      </c>
+      <c r="G9" s="38">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="H9" s="38">
+        <f t="shared" si="2"/>
+        <v>28.042328042328041</v>
+      </c>
+      <c r="I9" s="38">
         <f t="shared" si="3"/>
-        <v>189</v>
-      </c>
-      <c r="G9" s="44">
-        <f>F9/$G$15*100</f>
-        <v>63</v>
-      </c>
-      <c r="H9" s="44">
+        <v>22.222222222222221</v>
+      </c>
+      <c r="J9" s="38">
         <f t="shared" si="1"/>
-        <v>28.042328042328041</v>
-      </c>
-      <c r="I9" s="44">
-        <f t="shared" si="2"/>
-        <v>22.222222222222221</v>
-      </c>
-      <c r="J9" s="44">
-        <f t="shared" si="0"/>
         <v>49.735449735449734</v>
       </c>
     </row>
@@ -4248,23 +5122,23 @@
         <v>43</v>
       </c>
       <c r="F10" s="11">
+        <f t="shared" si="4"/>
+        <v>151</v>
+      </c>
+      <c r="G10" s="38">
+        <f t="shared" si="0"/>
+        <v>50.333333333333329</v>
+      </c>
+      <c r="H10" s="38">
+        <f t="shared" si="2"/>
+        <v>27.814569536423839</v>
+      </c>
+      <c r="I10" s="38">
         <f t="shared" si="3"/>
-        <v>151</v>
-      </c>
-      <c r="G10" s="44">
-        <f>F10/$G$15*100</f>
-        <v>50.333333333333329</v>
-      </c>
-      <c r="H10" s="44">
+        <v>43.70860927152318</v>
+      </c>
+      <c r="J10" s="38">
         <f t="shared" si="1"/>
-        <v>27.814569536423839</v>
-      </c>
-      <c r="I10" s="44">
-        <f t="shared" si="2"/>
-        <v>43.70860927152318</v>
-      </c>
-      <c r="J10" s="44">
-        <f t="shared" si="0"/>
         <v>28.476821192052981</v>
       </c>
     </row>
@@ -4285,23 +5159,23 @@
         <v>43</v>
       </c>
       <c r="F11" s="11">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="G11" s="38">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H11" s="38">
+        <f t="shared" si="2"/>
+        <v>46.825396825396822</v>
+      </c>
+      <c r="I11" s="38">
         <f t="shared" si="3"/>
-        <v>126</v>
-      </c>
-      <c r="G11" s="44">
-        <f>F11/$G$15*100</f>
-        <v>42</v>
-      </c>
-      <c r="H11" s="44">
+        <v>19.047619047619047</v>
+      </c>
+      <c r="J11" s="38">
         <f t="shared" si="1"/>
-        <v>46.825396825396822</v>
-      </c>
-      <c r="I11" s="44">
-        <f t="shared" si="2"/>
-        <v>19.047619047619047</v>
-      </c>
-      <c r="J11" s="44">
-        <f t="shared" si="0"/>
         <v>34.126984126984127</v>
       </c>
     </row>
@@ -4329,8 +5203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4345,35 +5219,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="40" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4440,7 +5314,7 @@
       <c r="F5">
         <v>559.20000000000005</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="40" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4507,7 +5381,7 @@
       <c r="F8">
         <v>280.95</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="40" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5383,8 +6257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5399,32 +6273,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="39" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5447,7 +6321,7 @@
       <c r="F3">
         <v>414.44</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="39" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5534,7 +6408,7 @@
       <c r="F7">
         <v>758.61</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="39" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5601,7 +6475,7 @@
       <c r="F10">
         <v>742.42</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="39" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6435,4 +7309,327 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="str">
+        <f>REPLACE(C2,G2,1," ")</f>
+        <v>Bob Brown</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>414.44</v>
+      </c>
+      <c r="G2">
+        <f>FIND("-",C2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="41" t="str">
+        <f t="shared" ref="D3:D12" si="0">REPLACE(C3,G3,1," ")</f>
+        <v>John Doe</v>
+      </c>
+      <c r="E3">
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <v>314.83</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G12" si="1">FIND("-",C3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>Bob Brown</v>
+      </c>
+      <c r="E4">
+        <v>62</v>
+      </c>
+      <c r="F4">
+        <v>559.20000000000005</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Charlie Davis</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>126.9</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>John Doe</v>
+      </c>
+      <c r="E6">
+        <v>46</v>
+      </c>
+      <c r="F6">
+        <v>758.61</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Bob Brown</v>
+      </c>
+      <c r="E7" s="41">
+        <v>61</v>
+      </c>
+      <c r="F7">
+        <v>280.95</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Bob Brown</v>
+      </c>
+      <c r="E8">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>872.94</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Alice Johnson</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>742.42</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Bob Brown</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>156.66999999999999</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>John Doe</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>321.2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>Bob Brown</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>264.44</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Important Formulas.xlsx
+++ b/Important Formulas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Frequency" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Mid , Len Formula" sheetId="11" r:id="rId10"/>
     <sheet name="Get-Sheet-Name" sheetId="9" r:id="rId11"/>
     <sheet name="Date Functions" sheetId="12" r:id="rId12"/>
+    <sheet name="Concatenate" sheetId="13" r:id="rId13"/>
+    <sheet name="text formula" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Index &amp; Match'!$A$1:$F$11</definedName>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="161">
   <si>
     <r>
       <t>FREQUENCY</t>
@@ -466,13 +468,85 @@
   <si>
     <t>Month Name</t>
   </si>
+  <si>
+    <t xml:space="preserve">Mohd </t>
+  </si>
+  <si>
+    <t>Hamza</t>
+  </si>
+  <si>
+    <t>Mohd Hamza</t>
+  </si>
+  <si>
+    <t>UPPER()</t>
+  </si>
+  <si>
+    <t>KEKDN</t>
+  </si>
+  <si>
+    <t>LOWER()</t>
+  </si>
+  <si>
+    <t>mohd hamza ansari</t>
+  </si>
+  <si>
+    <t>PROPER()</t>
+  </si>
+  <si>
+    <t>lEN()</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>LEFT()</t>
+  </si>
+  <si>
+    <t>Paranormal</t>
+  </si>
+  <si>
+    <t>MID()</t>
+  </si>
+  <si>
+    <t>RIGHT()</t>
+  </si>
+  <si>
+    <t>FIND()</t>
+  </si>
+  <si>
+    <t>Atlantis area</t>
+  </si>
+  <si>
+    <t>zomato</t>
+  </si>
+  <si>
+    <t>Note : SEARCH() is not case sensitive while FIND() is</t>
+  </si>
+  <si>
+    <t>REPLACE()</t>
+  </si>
+  <si>
+    <t>Physical Chemistry</t>
+  </si>
+  <si>
+    <t>SUBSITUTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     hello     world  wel   come</t>
+  </si>
+  <si>
+    <t>TRIM()</t>
+  </si>
+  <si>
+    <t>EXACT()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-14009]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -823,6 +897,14 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="4"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -842,14 +924,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="4"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
@@ -1499,15 +1573,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>157654</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>177361</xdr:rowOff>
+      <xdr:colOff>72258</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>78827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>151085</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>52552</xdr:rowOff>
+      <xdr:colOff>65689</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>144518</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1516,7 +1590,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4434051" y="939361"/>
+          <a:off x="4348655" y="650327"/>
           <a:ext cx="2437086" cy="2542191"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2281,7 +2355,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2316,14 +2390,14 @@
       <c r="C2">
         <v>20</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2664,13 +2738,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="43" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2696,8 +2770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2751,8 +2825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2775,9 +2849,9 @@
       <c r="A2" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="44">
         <f ca="1">TODAY()</f>
-        <v>45750</v>
+        <v>45826</v>
       </c>
       <c r="C2" t="s">
         <v>104</v>
@@ -2787,9 +2861,9 @@
       <c r="A3" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="45">
         <f ca="1">NOW()</f>
-        <v>45750.655210648147</v>
+        <v>45826.635625462965</v>
       </c>
       <c r="C3" t="s">
         <v>105</v>
@@ -2799,7 +2873,7 @@
       <c r="A4" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="47">
         <f ca="1">YEAR(TODAY())</f>
         <v>2025</v>
       </c>
@@ -2811,9 +2885,9 @@
       <c r="A5" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="47">
         <f ca="1">MONTH(TODAY())</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>111</v>
@@ -2823,16 +2897,16 @@
       <c r="A6" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="47">
         <f ca="1">DAY(TODAY())</f>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="54"/>
+      <c r="B7" s="47"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
@@ -2846,7 +2920,7 @@
       <c r="A9" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="46">
         <f>DATEVALUE("01"&amp;D9&amp;"2025")</f>
         <v>45717</v>
       </c>
@@ -2861,31 +2935,31 @@
       <c r="A10" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="53"/>
+      <c r="B10" s="46"/>
       <c r="C10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
-      <c r="B11" s="53">
+      <c r="B11" s="46">
         <f>EOMONTH(D11,0)</f>
         <v>45716</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="46">
         <v>45689</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="57"/>
-      <c r="B12" s="53">
+      <c r="B12" s="46">
         <f>EOMONTH(D11,1)</f>
         <v>45747</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="57"/>
-      <c r="B13" s="53">
+      <c r="B13" s="46">
         <f>EOMONTH(D11,-1)</f>
         <v>45688</v>
       </c>
@@ -2910,32 +2984,32 @@
       <c r="A18" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="44">
         <f ca="1">TODAY()</f>
-        <v>45750</v>
-      </c>
-      <c r="C18" s="55" t="s">
+        <v>45826</v>
+      </c>
+      <c r="C18" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="44">
         <f ca="1">B18+1</f>
-        <v>45751</v>
+        <v>45827</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="51">
+      <c r="B19" s="44">
         <f ca="1">TODAY()</f>
-        <v>45750</v>
-      </c>
-      <c r="C19" s="55" t="s">
+        <v>45826</v>
+      </c>
+      <c r="C19" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="44">
         <f ca="1">B19-1</f>
-        <v>45749</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2950,32 +3024,32 @@
       <c r="A22" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="44">
         <f ca="1">TODAY()</f>
-        <v>45750</v>
-      </c>
-      <c r="C22" s="55" t="s">
+        <v>45826</v>
+      </c>
+      <c r="C22" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="44">
         <f ca="1">EDATE(B22,1)</f>
-        <v>45780</v>
+        <v>45856</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="51">
+      <c r="B23" s="44">
         <f ca="1">TODAY()</f>
-        <v>45750</v>
-      </c>
-      <c r="C23" s="55" t="s">
+        <v>45826</v>
+      </c>
+      <c r="C23" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="44">
         <f ca="1">EDATE(B23,-1)</f>
-        <v>45719</v>
+        <v>45795</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2992,16 +3066,16 @@
       <c r="A26" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="51">
+      <c r="B26" s="44">
         <v>43926</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="44">
         <v>43925</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="48" t="s">
         <v>129</v>
       </c>
       <c r="F26" t="b">
@@ -3013,16 +3087,16 @@
       <c r="A27" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="51">
+      <c r="B27" s="44">
         <v>43926</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="44">
         <v>43925</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="48" t="s">
         <v>130</v>
       </c>
       <c r="F27" t="b">
@@ -3034,16 +3108,16 @@
       <c r="A28" t="s">
         <v>127</v>
       </c>
-      <c r="B28" s="51">
+      <c r="B28" s="44">
         <v>45658</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="44">
         <v>45658</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="48" t="s">
         <v>131</v>
       </c>
       <c r="F28" t="b">
@@ -3066,17 +3140,17 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="51">
+      <c r="A33" s="44">
         <f ca="1">TODAY()</f>
-        <v>45750</v>
+        <v>45826</v>
       </c>
       <c r="B33" t="str">
         <f ca="1">TEXT(A33,"dddd")</f>
-        <v>Thursday</v>
+        <v>Wednesday</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="53">
+      <c r="A34" s="46">
         <v>44016</v>
       </c>
       <c r="B34" t="str">
@@ -3099,17 +3173,17 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="51">
+      <c r="A38" s="44">
         <f ca="1">TODAY()</f>
-        <v>45750</v>
+        <v>45826</v>
       </c>
       <c r="B38" t="str">
         <f ca="1">TEXT(A38,"mmmm")</f>
-        <v>April</v>
+        <v>June</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="53">
+      <c r="A39" s="46">
         <v>44016</v>
       </c>
       <c r="B39" t="str">
@@ -3119,6 +3193,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A10:A13"/>
@@ -3126,11 +3202,243 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE(A1," ",B1)</f>
+        <v>Mohd  Hamza</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="48" t="str">
+        <f>UPPER(A1)</f>
+        <v>MOHD HAMZA</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="48" t="str">
+        <f>LOWER(A2)</f>
+        <v>kekdn</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="48" t="str">
+        <f>PROPER(A3)</f>
+        <v>Mohd Hamza Ansari</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="48">
+        <f>LEN(A4)</f>
+        <v>17</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="48" t="str">
+        <f>LEFT(A5,4)</f>
+        <v>Comp</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="48" t="str">
+        <f>MID(A6,3,5)</f>
+        <v>ranor</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="48" t="str">
+        <f>RIGHT(A7,5)</f>
+        <v>puter</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="48">
+        <f>FIND("a",A8)</f>
+        <v>4</v>
+      </c>
+      <c r="D8" s="48">
+        <f>FIND("a",A8,5)</f>
+        <v>10</v>
+      </c>
+      <c r="E8" s="48">
+        <f>FIND("a",A8,11)</f>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="48" t="str">
+        <f>REPLACE(A9,1,1,"T")</f>
+        <v>Tomato</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="48" t="str">
+        <f>SUBSTITUTE(A10,"Physical","Organic")</f>
+        <v>Organic Chemistry</v>
+      </c>
+      <c r="D10" s="48" t="str">
+        <f>REPLACE(A10,1,8,"Organic")</f>
+        <v>Organic Chemistry</v>
+      </c>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="48" t="str">
+        <f>TRIM(A11)</f>
+        <v>hello world wel come</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="48">
+        <v>98483</v>
+      </c>
+      <c r="B12" s="48">
+        <v>98483</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="48" t="b">
+        <f>EXACT(A12,B12)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="48"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3309,12 +3617,12 @@
         <v>46</v>
       </c>
       <c r="I6" s="19"/>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
@@ -3447,12 +3755,12 @@
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="44" t="s">
+      <c r="J10" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="45"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -3549,29 +3857,29 @@
       </c>
     </row>
     <row r="20" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="J20" s="44" t="s">
+      <c r="J20" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
     </row>
     <row r="21" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="J21" s="46" t="s">
+      <c r="J21" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
     </row>
     <row r="22" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="J22" s="47">
+      <c r="J22" s="53">
         <f>INDEX(A1:F11,H27,H24)</f>
         <v>45</v>
       </c>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
     </row>
     <row r="23" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
@@ -3627,8 +3935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3652,13 +3960,13 @@
       <c r="F1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -3717,23 +4025,23 @@
         <v>129</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J3">
         <f>LOOKUP(I3,B1:B11,C1:C11)</f>
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K3">
         <f>LOOKUP(I3,B1:B11,D1:D11)</f>
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="L3">
         <f>LOOKUP(I3,B1:B11,E1:E11)</f>
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="M3">
         <f>LOOKUP(I3,B1:B11,F1:F11)</f>
-        <v>189</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -4230,8 +4538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4765,7 +5073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -5203,8 +5511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5219,14 +5527,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -6257,8 +6565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="D1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6273,14 +6581,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -7316,7 +7624,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
